--- a/Docs/Testing (TES)/Test_Cases/TS_Group.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Group.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -123,6 +123,9 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>ver on 28.11.2013</t>
+  </si>
+  <si>
     <t>Pass выходит при использовании на 3 шаге frontend | album, frontend | author, flatpages | flat page, auth | group, frontend | message, frontend | order, frontend | price, sites | site, auth | user</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
 2. Pass
 3. Pass
 4. Pass</t>
+  </si>
+  <si>
+    <t>12 — 25</t>
   </si>
   <si>
     <t>TS_user_003</t>
@@ -144,9 +150,6 @@
 4. Pass
 5. Pass
 6. Pass</t>
-  </si>
-  <si>
-    <t>13 — 26</t>
   </si>
   <si>
     <t>На втором шаге меняли права следующим образом
@@ -277,13 +280,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.9294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.721568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.5921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.7725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -336,7 +339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -351,7 +354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="122.35" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="122.35" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -384,21 +387,21 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.1333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.2392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.6274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.478431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -430,7 +433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.05" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="96.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>22</v>
       </c>
@@ -448,36 +451,42 @@
         <v>26</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="123.1" outlineLevel="0" r="3">
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="123.1" outlineLevel="0" r="3">
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="4">
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="55.2" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="5">
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="55.2" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>11</v>
       </c>
@@ -486,40 +495,44 @@
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
-        <v>12</v>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="82.05" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="243.45" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
-        <v>32</v>
-      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="243.45" outlineLevel="0" r="7">
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +558,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
